--- a/data/trans_orig/P17_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>50336</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38769</v>
+        <v>39106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63321</v>
+        <v>63161</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1855278085709073</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1428930229669708</v>
+        <v>0.1441362364928272</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2333876438749965</v>
+        <v>0.2327976983728487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -765,19 +765,19 @@
         <v>95566</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80595</v>
+        <v>80066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110163</v>
+        <v>112445</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3663799852093815</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3089863136762687</v>
+        <v>0.3069573915415695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4223443924037786</v>
+        <v>0.4310918290368231</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -786,19 +786,19 @@
         <v>145902</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>125250</v>
+        <v>126735</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168532</v>
+        <v>168272</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2741737880803161</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2353657756877421</v>
+        <v>0.238155542867427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.316699364574018</v>
+        <v>0.316210186456835</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>220978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>207993</v>
+        <v>208153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>232545</v>
+        <v>232208</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8144721914290927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7666123561250036</v>
+        <v>0.7672023016271513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8571069770330292</v>
+        <v>0.8558637635071729</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -836,19 +836,19 @@
         <v>165272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>150675</v>
+        <v>148393</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180243</v>
+        <v>180772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6336200147906185</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5776556075962215</v>
+        <v>0.568908170963177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6910136863237314</v>
+        <v>0.6930426084584305</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>372</v>
@@ -857,19 +857,19 @@
         <v>386250</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>363620</v>
+        <v>363880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>406902</v>
+        <v>405417</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7258262119196839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6833006354259819</v>
+        <v>0.683789813543165</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7646342243122578</v>
+        <v>0.761844457132573</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>152547</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>132659</v>
+        <v>131203</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>171443</v>
+        <v>173762</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3093794622694128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2690435795326202</v>
+        <v>0.266091834796585</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3477016977475768</v>
+        <v>0.3524045069316858</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>214</v>
@@ -982,19 +982,19 @@
         <v>214383</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>193584</v>
+        <v>193811</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>237611</v>
+        <v>238960</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4254055951268353</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3841332838368957</v>
+        <v>0.3845852901818888</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4714975845069926</v>
+        <v>0.4741756612725372</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>360</v>
@@ -1003,19 +1003,19 @@
         <v>366930</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>334491</v>
+        <v>335664</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>400525</v>
+        <v>395149</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3680252427522812</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3354897017460894</v>
+        <v>0.3366663735843443</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4017206722892565</v>
+        <v>0.3963283833569148</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>340528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>321632</v>
+        <v>319313</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360416</v>
+        <v>361872</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6906205377305872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6522983022524232</v>
+        <v>0.6475954930683139</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7309564204673799</v>
+        <v>0.7339081652034144</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>285</v>
@@ -1053,19 +1053,19 @@
         <v>289566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>266338</v>
+        <v>264989</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>310365</v>
+        <v>310138</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5745944048731647</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5285024154930075</v>
+        <v>0.5258243387274628</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6158667161631044</v>
+        <v>0.6154147098181112</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>604</v>
@@ -1074,19 +1074,19 @@
         <v>630094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>596499</v>
+        <v>601875</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>662533</v>
+        <v>661360</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6319747572477188</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5982793277107434</v>
+        <v>0.6036716166430853</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6645102982539105</v>
+        <v>0.6633336264156557</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>54297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41378</v>
+        <v>41684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69112</v>
+        <v>69273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1702927119762371</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1297749466742672</v>
+        <v>0.1307346013754797</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2167578709953785</v>
+        <v>0.2172605719876854</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1199,19 +1199,19 @@
         <v>68625</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56161</v>
+        <v>55217</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85138</v>
+        <v>84135</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2045981395209637</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1674382946318043</v>
+        <v>0.1646252719632391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2538308809047234</v>
+        <v>0.2508402821955721</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -1220,19 +1220,19 @@
         <v>122922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105304</v>
+        <v>103848</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144300</v>
+        <v>143323</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1878797398030879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1609523108459307</v>
+        <v>0.1587259477074974</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.220555770855061</v>
+        <v>0.2190618903282997</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>264549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>249734</v>
+        <v>249573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>277468</v>
+        <v>277162</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8297072880237629</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7832421290046216</v>
+        <v>0.7827394280123143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8702250533257329</v>
+        <v>0.8692653986245201</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -1270,19 +1270,19 @@
         <v>266787</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>250274</v>
+        <v>251277</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>279251</v>
+        <v>280195</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7954018604790363</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7461691190952766</v>
+        <v>0.7491597178044277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8325617053681955</v>
+        <v>0.8353747280367606</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>523</v>
@@ -1291,19 +1291,19 @@
         <v>531336</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>509958</v>
+        <v>510935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>548954</v>
+        <v>550410</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8121202601969121</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.779444229144939</v>
+        <v>0.7809381096717003</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8390476891540696</v>
+        <v>0.8412740522925032</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>113690</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>96540</v>
+        <v>97257</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>130703</v>
+        <v>130273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3169758633430421</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2691592446390626</v>
+        <v>0.2711592951030769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3644081785072912</v>
+        <v>0.3632104469070308</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>130</v>
@@ -1416,19 +1416,19 @@
         <v>124517</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106840</v>
+        <v>107561</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142872</v>
+        <v>141538</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3352139890414991</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2876246117158198</v>
+        <v>0.2895659378667749</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3846267247402469</v>
+        <v>0.3810369854494516</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -1437,19 +1437,19 @@
         <v>238207</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>214721</v>
+        <v>213507</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>265361</v>
+        <v>263202</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3262546050783403</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.294087124331574</v>
+        <v>0.2924242040373974</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3634452657730503</v>
+        <v>0.3604884758482828</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>244981</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>227968</v>
+        <v>228398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>262131</v>
+        <v>261414</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6830241366569578</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6355918214927089</v>
+        <v>0.6367895530929689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7308407553609375</v>
+        <v>0.728840704896923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>254</v>
@@ -1487,19 +1487,19 @@
         <v>246939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>228584</v>
+        <v>229918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>264616</v>
+        <v>263895</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.664786010958501</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6153732752597532</v>
+        <v>0.6189630145505484</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7123753882841802</v>
+        <v>0.710434062133225</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>502</v>
@@ -1508,19 +1508,19 @@
         <v>491920</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>464766</v>
+        <v>466925</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>515406</v>
+        <v>516620</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6737453949216597</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6365547342269497</v>
+        <v>0.6395115241517174</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.705912875668426</v>
+        <v>0.7075757959626027</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>47631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36480</v>
+        <v>36251</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61709</v>
+        <v>60374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2352278586785178</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1801585396083387</v>
+        <v>0.17902392059075</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3047484140262054</v>
+        <v>0.2981576005251528</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1633,19 +1633,19 @@
         <v>59019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47527</v>
+        <v>45859</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73395</v>
+        <v>72632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2854829647389784</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2298931223929105</v>
+        <v>0.2218270822415277</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3550191938857277</v>
+        <v>0.3513271259205561</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -1654,19 +1654,19 @@
         <v>106651</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89845</v>
+        <v>89380</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125744</v>
+        <v>126558</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2606160750657463</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2195485724805173</v>
+        <v>0.2184129029515435</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3072728979443298</v>
+        <v>0.3092622995967948</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>154859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>140781</v>
+        <v>142116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>166010</v>
+        <v>166239</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7647721413214822</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6952515859737947</v>
+        <v>0.7018423994748474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8198414603916614</v>
+        <v>0.8209760794092502</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>139</v>
@@ -1704,19 +1704,19 @@
         <v>147716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133340</v>
+        <v>134103</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>159208</v>
+        <v>160876</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7145170352610216</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6449808061142721</v>
+        <v>0.6486728740794439</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7701068776070891</v>
+        <v>0.7781729177584723</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>299</v>
@@ -1725,19 +1725,19 @@
         <v>302574</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>283481</v>
+        <v>282667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>319380</v>
+        <v>319845</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7393839249342536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6927271020556702</v>
+        <v>0.6907377004032053</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7804514275194826</v>
+        <v>0.7815870970484571</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>48029</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37028</v>
+        <v>36647</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62869</v>
+        <v>61968</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1780008384617048</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1372300446961617</v>
+        <v>0.135817499198619</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2330014112284649</v>
+        <v>0.2296634823550571</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -1850,19 +1850,19 @@
         <v>61457</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46104</v>
+        <v>49386</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74980</v>
+        <v>74564</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2209526128699794</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1657557081293214</v>
+        <v>0.1775567085936403</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2695725887045619</v>
+        <v>0.2680772104701581</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>105</v>
@@ -1871,19 +1871,19 @@
         <v>109485</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91168</v>
+        <v>91318</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128397</v>
+        <v>128230</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.199802878498474</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1663749351419584</v>
+        <v>0.1666494229438863</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2343149139352377</v>
+        <v>0.2340101526014755</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>221793</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>206953</v>
+        <v>207854</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232794</v>
+        <v>233175</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8219991615382952</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.766998588771535</v>
+        <v>0.7703365176449427</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8627699553038383</v>
+        <v>0.8641825008013807</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>211</v>
@@ -1921,19 +1921,19 @@
         <v>216687</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>203164</v>
+        <v>203580</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>232040</v>
+        <v>228758</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7790473871300205</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7304274112954389</v>
+        <v>0.7319227895298419</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8342442918706791</v>
+        <v>0.8224432914063596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>430</v>
@@ -1942,19 +1942,19 @@
         <v>438481</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>419569</v>
+        <v>419736</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>456798</v>
+        <v>456648</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.800197121501526</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7656850860647622</v>
+        <v>0.7659898473985244</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8336250648580414</v>
+        <v>0.8333505770561135</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>89964</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73134</v>
+        <v>73712</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>109547</v>
+        <v>108929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1464872363402202</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1190825984808706</v>
+        <v>0.1200249498729723</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1783740170516987</v>
+        <v>0.1773676034753411</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>111</v>
@@ -2067,19 +2067,19 @@
         <v>112200</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93003</v>
+        <v>93098</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133550</v>
+        <v>132170</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1760700950913301</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1459459691622596</v>
+        <v>0.1460950640824474</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2095741999672645</v>
+        <v>0.2074082111019917</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>199</v>
@@ -2088,19 +2088,19 @@
         <v>202164</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>177467</v>
+        <v>175891</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>232047</v>
+        <v>228323</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1615517244658689</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1418167396639557</v>
+        <v>0.1405570231185123</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1854319543262785</v>
+        <v>0.1824561274814174</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>524178</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>504595</v>
+        <v>505213</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>541008</v>
+        <v>540430</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8535127636597798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8216259829483012</v>
+        <v>0.8226323965246588</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8809174015191292</v>
+        <v>0.8799750501270276</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>509</v>
@@ -2138,19 +2138,19 @@
         <v>525044</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>503694</v>
+        <v>505074</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>544241</v>
+        <v>544146</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8239299049086699</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7904258000327355</v>
+        <v>0.7925917888980083</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8540540308377405</v>
+        <v>0.8539049359175526</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1018</v>
@@ -2159,19 +2159,19 @@
         <v>1049222</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1019339</v>
+        <v>1023063</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1073919</v>
+        <v>1075495</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8384482755341311</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8145680456737215</v>
+        <v>0.8175438725185826</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8581832603360441</v>
+        <v>0.8594429768814875</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>208029</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>185050</v>
+        <v>184611</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233659</v>
+        <v>233579</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2815873315977049</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2504842408324824</v>
+        <v>0.2498900028974196</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3162804183661079</v>
+        <v>0.3161724578177775</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>291</v>
@@ -2284,19 +2284,19 @@
         <v>307074</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>278388</v>
+        <v>279369</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>331578</v>
+        <v>334192</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3919198859310303</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3553081173901408</v>
+        <v>0.3565599101063908</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4231946812580127</v>
+        <v>0.4265318670291255</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>496</v>
@@ -2305,19 +2305,19 @@
         <v>515102</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>478430</v>
+        <v>476105</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>554704</v>
+        <v>552603</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3383749399375587</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3142847529287504</v>
+        <v>0.312757225557824</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3643898827339178</v>
+        <v>0.3630098836793833</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>530742</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>505112</v>
+        <v>505192</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>553721</v>
+        <v>554160</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7184126684022951</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6837195816338921</v>
+        <v>0.6838275421822226</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7495157591675178</v>
+        <v>0.7501099971025805</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>454</v>
@@ -2355,19 +2355,19 @@
         <v>476437</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>451933</v>
+        <v>449319</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>505123</v>
+        <v>504142</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6080801140689698</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5768053187419874</v>
+        <v>0.5734681329708745</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6446918826098591</v>
+        <v>0.6434400898936091</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>980</v>
@@ -2376,19 +2376,19 @@
         <v>1007180</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>967578</v>
+        <v>969679</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1043852</v>
+        <v>1046177</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6616250600624413</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6356101172660822</v>
+        <v>0.6369901163206169</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6857152470712498</v>
+        <v>0.6872427744421761</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>764523</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>721727</v>
+        <v>715875</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>817202</v>
+        <v>817496</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2340044288850048</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2209054684831939</v>
+        <v>0.2191141791591646</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2501282406842695</v>
+        <v>0.2502181726111911</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1023</v>
@@ -2501,19 +2501,19 @@
         <v>1042840</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>987748</v>
+        <v>991311</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1097203</v>
+        <v>1096910</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.308780100593371</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2924675709876742</v>
+        <v>0.2935226107439725</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3248768697327278</v>
+        <v>0.324790131369305</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1772</v>
@@ -2522,19 +2522,19 @@
         <v>1807363</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1736591</v>
+        <v>1736810</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1881206</v>
+        <v>1882529</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2720121139120779</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2613607796828196</v>
+        <v>0.2613936706478213</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2831256636917109</v>
+        <v>0.2833248280815198</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2502609</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2449930</v>
+        <v>2449636</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2545405</v>
+        <v>2551257</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7659955711149952</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7498717593157305</v>
+        <v>0.7497818273888088</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7790945315168061</v>
+        <v>0.7808858208408354</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2272</v>
@@ -2572,19 +2572,19 @@
         <v>2334449</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2280086</v>
+        <v>2280379</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2389541</v>
+        <v>2385978</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.691219899406629</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6751231302672726</v>
+        <v>0.675209868630695</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7075324290123257</v>
+        <v>0.7064773892560275</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4728</v>
@@ -2593,19 +2593,19 @@
         <v>4837058</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4763215</v>
+        <v>4761892</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4907830</v>
+        <v>4907611</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7279878860879221</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7168743363082891</v>
+        <v>0.7166751719184803</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7386392203171803</v>
+        <v>0.7386063293521786</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>78989</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64756</v>
+        <v>63972</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94234</v>
+        <v>95377</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2679980292118703</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2197080193218197</v>
+        <v>0.2170483371316545</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3197228047327859</v>
+        <v>0.3235990334463001</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -2962,19 +2962,19 @@
         <v>108498</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91721</v>
+        <v>90490</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125904</v>
+        <v>126178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3777185242061568</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3193124545682728</v>
+        <v>0.3150273802649789</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4383147340110453</v>
+        <v>0.439269631579599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>172</v>
@@ -2983,19 +2983,19 @@
         <v>187487</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166530</v>
+        <v>165875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>211722</v>
+        <v>212090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3221519511214261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2861428559323092</v>
+        <v>0.2850163966946139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3637948680426706</v>
+        <v>0.3644271591752407</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>215749</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200504</v>
+        <v>199361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>229982</v>
+        <v>230766</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7320019707881297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6802771952672148</v>
+        <v>0.6764009665537</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7802919806781803</v>
+        <v>0.7829516628683456</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>161</v>
@@ -3033,19 +3033,19 @@
         <v>178747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>161341</v>
+        <v>161067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>195524</v>
+        <v>196755</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6222814757938432</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5616852659889547</v>
+        <v>0.5607303684204009</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6806875454317272</v>
+        <v>0.6849726197350208</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>366</v>
@@ -3054,19 +3054,19 @@
         <v>394496</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>370261</v>
+        <v>369893</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>415453</v>
+        <v>416108</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6778480488785739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6362051319573293</v>
+        <v>0.6355728408247592</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7138571440676907</v>
+        <v>0.7149836033053861</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>129515</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>111035</v>
+        <v>109962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>151990</v>
+        <v>149725</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2567352891062988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.220102256076944</v>
+        <v>0.2179752973864432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3012871469928568</v>
+        <v>0.2967988027147656</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -3179,19 +3179,19 @@
         <v>156075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>134258</v>
+        <v>135530</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>176519</v>
+        <v>179640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.297987013009888</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2563332032832596</v>
+        <v>0.2587604274665197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3370189795516786</v>
+        <v>0.3429782506443002</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>267</v>
@@ -3200,19 +3200,19 @@
         <v>285590</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>255659</v>
+        <v>257589</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>312189</v>
+        <v>316319</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.27774824476198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2486394276119734</v>
+        <v>0.2505166107516725</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3036165357294612</v>
+        <v>0.3076338166349966</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>374953</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352478</v>
+        <v>354743</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>393433</v>
+        <v>394506</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7432647108937012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6987128530071429</v>
+        <v>0.7032011972852342</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.779897743923056</v>
+        <v>0.7820247026135567</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -3250,19 +3250,19 @@
         <v>367690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>347246</v>
+        <v>344125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>389507</v>
+        <v>388235</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7020129869901121</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6629810204483212</v>
+        <v>0.6570217493556999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7436667967167403</v>
+        <v>0.7412395725334804</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>684</v>
@@ -3271,19 +3271,19 @@
         <v>742643</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>716044</v>
+        <v>711914</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>772574</v>
+        <v>770644</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.72225175523802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6963834642705388</v>
+        <v>0.6923661833650034</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7513605723880267</v>
+        <v>0.7494833892483275</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>56131</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43882</v>
+        <v>43749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72577</v>
+        <v>70386</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1732201540183257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1354175721997722</v>
+        <v>0.1350079873069083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2239701276535232</v>
+        <v>0.2172098191549711</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -3396,19 +3396,19 @@
         <v>97325</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79529</v>
+        <v>80285</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115604</v>
+        <v>114625</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2853950308876815</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2332078537739693</v>
+        <v>0.2354253066385789</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.338993896682835</v>
+        <v>0.3361250104345968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -3417,19 +3417,19 @@
         <v>153457</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132828</v>
+        <v>130701</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176708</v>
+        <v>176371</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2307390723079465</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1997217670824293</v>
+        <v>0.1965240031974854</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2657003399973908</v>
+        <v>0.2651935764400716</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>267915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>251469</v>
+        <v>253660</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>280164</v>
+        <v>280297</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8267798459816743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.776029872346477</v>
+        <v>0.7827901808450288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.864582427800228</v>
+        <v>0.8649920126930916</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -3467,19 +3467,19 @@
         <v>243695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225416</v>
+        <v>226395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>261491</v>
+        <v>260735</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7146049691123184</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.661006103317165</v>
+        <v>0.6638749895654031</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7667921462260308</v>
+        <v>0.7645746933614211</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>490</v>
@@ -3488,19 +3488,19 @@
         <v>511609</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>488358</v>
+        <v>488695</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>532238</v>
+        <v>534365</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7692609276920535</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7342996600026092</v>
+        <v>0.7348064235599283</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8002782329175706</v>
+        <v>0.8034759968025146</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>182513</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161310</v>
+        <v>162971</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>202159</v>
+        <v>202883</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4880253285230053</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4313312111852738</v>
+        <v>0.4357718190833333</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5405583286523207</v>
+        <v>0.5424951735086537</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>201</v>
@@ -3613,19 +3613,19 @@
         <v>213318</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193525</v>
+        <v>190494</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>231986</v>
+        <v>232712</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5484446496869081</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4975570796199061</v>
+        <v>0.4897636787292315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5964398593448608</v>
+        <v>0.5983071310336963</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>367</v>
@@ -3634,19 +3634,19 @@
         <v>395831</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>367382</v>
+        <v>364963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>426556</v>
+        <v>423392</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5188277079248959</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4815389751724711</v>
+        <v>0.4783679884668542</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5591000894970299</v>
+        <v>0.5549525094997732</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>191469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>171823</v>
+        <v>171099</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212672</v>
+        <v>211011</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5119746714769947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4594416713476792</v>
+        <v>0.4575048264913463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5686687888147258</v>
+        <v>0.5642281809166667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>170</v>
@@ -3684,19 +3684,19 @@
         <v>175633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>156965</v>
+        <v>156239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>195426</v>
+        <v>198457</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4515553503130919</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4035601406551386</v>
+        <v>0.4016928689663037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5024429203800937</v>
+        <v>0.5102363212707685</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>348</v>
@@ -3705,19 +3705,19 @@
         <v>367102</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>336377</v>
+        <v>339541</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>395551</v>
+        <v>397970</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4811722920751041</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4408999105029701</v>
+        <v>0.445047490500227</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.518461024827529</v>
+        <v>0.5216320115331459</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>38619</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28104</v>
+        <v>27787</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52188</v>
+        <v>51329</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1816367077203826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1321806198972028</v>
+        <v>0.1306879436325772</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2454542373991699</v>
+        <v>0.2414124111612098</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -3830,19 +3830,19 @@
         <v>46887</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35504</v>
+        <v>35313</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59657</v>
+        <v>59192</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2135188329162446</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1616842635323686</v>
+        <v>0.1608144039912285</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2716718298280024</v>
+        <v>0.2695542526184879</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -3851,19 +3851,19 @@
         <v>85506</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71228</v>
+        <v>68349</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>104907</v>
+        <v>102516</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1978349523571872</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.164799019616064</v>
+        <v>0.1581396280940346</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2427236776055314</v>
+        <v>0.237190617186992</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>173999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160430</v>
+        <v>161289</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>184514</v>
+        <v>184831</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8183632922796175</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7545457626008304</v>
+        <v>0.7585875888387902</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8678193801027972</v>
+        <v>0.8693120563674227</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -3901,19 +3901,19 @@
         <v>172704</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>159934</v>
+        <v>160399</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>184087</v>
+        <v>184278</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7864811670837555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7283281701719974</v>
+        <v>0.7304457473815125</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8383157364676315</v>
+        <v>0.8391855960087721</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>325</v>
@@ -3922,19 +3922,19 @@
         <v>346703</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>327302</v>
+        <v>329693</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>360981</v>
+        <v>363860</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8021650476428128</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7572763223944684</v>
+        <v>0.7628093828130084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.835200980383936</v>
+        <v>0.8418603719059654</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>57021</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44886</v>
+        <v>44988</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72715</v>
+        <v>72594</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2081211852910195</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1638271666461357</v>
+        <v>0.1642022493191514</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2654013455309533</v>
+        <v>0.2649591271206077</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>92</v>
@@ -4047,19 +4047,19 @@
         <v>93851</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79313</v>
+        <v>77873</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112095</v>
+        <v>109195</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3351463599200558</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.283229178542169</v>
+        <v>0.2780868347104076</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4002953492611536</v>
+        <v>0.3899374934993486</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>149</v>
@@ -4068,19 +4068,19 @@
         <v>150873</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130555</v>
+        <v>131547</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172742</v>
+        <v>171277</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2723273510910365</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2356543255700416</v>
+        <v>0.2374436069340639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3118021769606169</v>
+        <v>0.3091574573333811</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>216960</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>201266</v>
+        <v>201387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229095</v>
+        <v>228993</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7918788147089806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7345986544690469</v>
+        <v>0.7350408728793922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8361728333538644</v>
+        <v>0.8357977506808485</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>177</v>
@@ -4118,19 +4118,19 @@
         <v>186180</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>167936</v>
+        <v>170836</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200718</v>
+        <v>202158</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6648536400799443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5997046507388465</v>
+        <v>0.6100625065006513</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.716770821457831</v>
+        <v>0.721913165289592</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>381</v>
@@ -4139,19 +4139,19 @@
         <v>403139</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>381270</v>
+        <v>382735</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>423457</v>
+        <v>422465</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7276726489089634</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6881978230393831</v>
+        <v>0.6908425426666188</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7643456744299584</v>
+        <v>0.762556393065936</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>131162</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108495</v>
+        <v>111305</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153625</v>
+        <v>153448</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.197894438643852</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1636946358586276</v>
+        <v>0.1679338927841994</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2317858964260922</v>
+        <v>0.2315190860812129</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>179</v>
@@ -4264,19 +4264,19 @@
         <v>193449</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>167220</v>
+        <v>170655</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>216031</v>
+        <v>221110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2791947815898738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.241340007397951</v>
+        <v>0.246298154779656</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3117860801292247</v>
+        <v>0.3191162204958704</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>302</v>
@@ -4285,19 +4285,19 @@
         <v>324611</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>293011</v>
+        <v>291761</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>361179</v>
+        <v>357146</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.239446950469005</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2161379204689</v>
+        <v>0.2152154739304729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2664213840990043</v>
+        <v>0.2634466559653973</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>531626</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>509163</v>
+        <v>509340</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>554293</v>
+        <v>551483</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.802105561356148</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7682141035739078</v>
+        <v>0.7684809139187871</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8363053641413725</v>
+        <v>0.8320661072158005</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>456</v>
@@ -4335,19 +4335,19 @@
         <v>499432</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>476850</v>
+        <v>471771</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>525661</v>
+        <v>522226</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7208052184101262</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6882139198707752</v>
+        <v>0.6808837795041289</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7586599926020487</v>
+        <v>0.7537018452203439</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>951</v>
@@ -4356,19 +4356,19 @@
         <v>1031058</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>994490</v>
+        <v>998523</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1062658</v>
+        <v>1063908</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7605530495309949</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7335786159009958</v>
+        <v>0.7365533440346027</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7838620795311</v>
+        <v>0.7847845260695271</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>194123</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>171110</v>
+        <v>171310</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>221176</v>
+        <v>221975</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2494966738644659</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2199195574596045</v>
+        <v>0.2201764052865449</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2842664677485074</v>
+        <v>0.285293794397256</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>243</v>
@@ -4481,19 +4481,19 @@
         <v>264561</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>238152</v>
+        <v>236706</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>293274</v>
+        <v>291313</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3219892087119948</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.289847473070985</v>
+        <v>0.2880875504074297</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3569353436793364</v>
+        <v>0.3545487072256842</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>418</v>
@@ -4502,19 +4502,19 @@
         <v>458683</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>419168</v>
+        <v>421734</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>495119</v>
+        <v>496922</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2867305520529008</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2620287020902065</v>
+        <v>0.2636327716430073</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3095072901157679</v>
+        <v>0.3106340515645171</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>583934</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>556881</v>
+        <v>556082</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>606947</v>
+        <v>606747</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7505033261355342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7157335322514927</v>
+        <v>0.714706205602744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7800804425403959</v>
+        <v>0.7798235947134552</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>512</v>
@@ -4552,19 +4552,19 @@
         <v>557084</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>528371</v>
+        <v>530332</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>583493</v>
+        <v>584939</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6780107912880052</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6430646563206637</v>
+        <v>0.6454512927743156</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7101525269290151</v>
+        <v>0.7119124495925702</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1053</v>
@@ -4573,19 +4573,19 @@
         <v>1141019</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1104583</v>
+        <v>1102780</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1180534</v>
+        <v>1177968</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7132694479470992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6904927098842319</v>
+        <v>0.6893659484354828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7379712979097933</v>
+        <v>0.7363672283569926</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>868073</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>811779</v>
+        <v>819320</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>921071</v>
+        <v>920532</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2534758377866184</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2370380297271263</v>
+        <v>0.2392399992358359</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2689511661539403</v>
+        <v>0.2687936642030714</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1090</v>
@@ -4698,19 +4698,19 @@
         <v>1173964</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1117477</v>
+        <v>1118463</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1231754</v>
+        <v>1235012</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3302170509784438</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3143281217290033</v>
+        <v>0.3146055158208376</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3464724725503265</v>
+        <v>0.3473887387000231</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1904</v>
@@ -4719,19 +4719,19 @@
         <v>2042037</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1965044</v>
+        <v>1964903</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2115132</v>
+        <v>2119409</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.292563578229609</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2815326896685631</v>
+        <v>0.2815125768653552</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3030359294919824</v>
+        <v>0.3036487208804837</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2556605</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2503607</v>
+        <v>2504146</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2612899</v>
+        <v>2605358</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7465241622133816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7310488338460593</v>
+        <v>0.7312063357969283</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7629619702728736</v>
+        <v>0.7607600007641639</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2205</v>
@@ -4769,19 +4769,19 @@
         <v>2381165</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2323375</v>
+        <v>2320117</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2437652</v>
+        <v>2436666</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6697829490215562</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6535275274496736</v>
+        <v>0.6526112612999769</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6856718782709967</v>
+        <v>0.6853944841791625</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4598</v>
@@ -4790,19 +4790,19 @@
         <v>4937770</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4864675</v>
+        <v>4860398</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5014763</v>
+        <v>5014904</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7074364217703909</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6969640705080177</v>
+        <v>0.6963512791195166</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.718467310331437</v>
+        <v>0.718487423134645</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>71317</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56140</v>
+        <v>57551</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87469</v>
+        <v>87658</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2436521910762473</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1917990173680311</v>
+        <v>0.196621495126867</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2988340490944331</v>
+        <v>0.2994812774545592</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -5159,19 +5159,19 @@
         <v>72121</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57735</v>
+        <v>58662</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>85932</v>
+        <v>87941</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2518113974220019</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2015808344702753</v>
+        <v>0.2048187803454161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3000319270452055</v>
+        <v>0.3070479112001341</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -5180,19 +5180,19 @@
         <v>143438</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>121942</v>
+        <v>121415</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165138</v>
+        <v>165456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2476874657775508</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2105676357156329</v>
+        <v>0.209657165204646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.285158745834992</v>
+        <v>0.2857066493996724</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>221384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>205232</v>
+        <v>205043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>236561</v>
+        <v>235150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7563478089237528</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7011659509055659</v>
+        <v>0.7005187225454408</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8082009826319686</v>
+        <v>0.803378504873133</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>203</v>
@@ -5230,19 +5230,19 @@
         <v>214288</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>200477</v>
+        <v>198468</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228674</v>
+        <v>227747</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7481886025779981</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6999680729547946</v>
+        <v>0.6929520887998659</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7984191655297247</v>
+        <v>0.7951812196545839</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>405</v>
@@ -5251,19 +5251,19 @@
         <v>435672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>413972</v>
+        <v>413654</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>457168</v>
+        <v>457695</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7523125342224491</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.714841254165008</v>
+        <v>0.7142933506003276</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7894323642843671</v>
+        <v>0.7903428347953539</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>146151</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>127975</v>
+        <v>126294</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>167324</v>
+        <v>167457</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2914614213437987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2552140219037672</v>
+        <v>0.2518612310102766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3336847325791989</v>
+        <v>0.3339496272563488</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -5376,19 +5376,19 @@
         <v>160970</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141195</v>
+        <v>139148</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>183994</v>
+        <v>182506</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3094042347774711</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.271393141569599</v>
+        <v>0.2674585272618432</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3536579687333176</v>
+        <v>0.350798377372996</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>291</v>
@@ -5397,19 +5397,19 @@
         <v>307122</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>277413</v>
+        <v>278286</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>339501</v>
+        <v>337479</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3005980452829152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.271520769167691</v>
+        <v>0.2723745770643475</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3322893852649114</v>
+        <v>0.3303104708391377</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>355292</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>334119</v>
+        <v>333986</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>373468</v>
+        <v>375149</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7085385786562013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6663152674208009</v>
+        <v>0.6660503727436514</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7447859780962327</v>
+        <v>0.7481387689897234</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>330</v>
@@ -5447,19 +5447,19 @@
         <v>359289</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>336265</v>
+        <v>337753</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>379064</v>
+        <v>381111</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.690595765222529</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6463420312666823</v>
+        <v>0.6492016226270043</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.728606858430401</v>
+        <v>0.7325414727381568</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>664</v>
@@ -5468,19 +5468,19 @@
         <v>714580</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>682201</v>
+        <v>684223</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>744289</v>
+        <v>743416</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6994019547170848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6677106147350887</v>
+        <v>0.6696895291608623</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.728479230832309</v>
+        <v>0.7276254229356525</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>31289</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22210</v>
+        <v>21872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43871</v>
+        <v>42598</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09821710527212374</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0697201615697345</v>
+        <v>0.0686569782944598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1377134765371837</v>
+        <v>0.1337196334156976</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -5593,19 +5593,19 @@
         <v>68351</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54248</v>
+        <v>55332</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83474</v>
+        <v>84271</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2032385859005009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1613030547614449</v>
+        <v>0.1645276971159667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2482066003450601</v>
+        <v>0.2505753414234707</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -5614,19 +5614,19 @@
         <v>99639</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82194</v>
+        <v>84051</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117512</v>
+        <v>118868</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1521506396007704</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1255114193752608</v>
+        <v>0.128346165152716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1794423847367163</v>
+        <v>0.1815122701788742</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>287276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>274694</v>
+        <v>275967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>296355</v>
+        <v>296693</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9017828947278762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8622865234628161</v>
+        <v>0.8662803665843024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9302798384302655</v>
+        <v>0.9313430217055401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>261</v>
@@ -5664,19 +5664,19 @@
         <v>267958</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>252835</v>
+        <v>252038</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>282061</v>
+        <v>280977</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7967614140994991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7517933996549399</v>
+        <v>0.7494246585765291</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8386969452385545</v>
+        <v>0.8354723028840333</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>564</v>
@@ -5685,19 +5685,19 @@
         <v>555235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537362</v>
+        <v>536006</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>572680</v>
+        <v>570823</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8478493603992296</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8205576152632837</v>
+        <v>0.8184877298211262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8744885806247393</v>
+        <v>0.8716538348472841</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>188233</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>168965</v>
+        <v>168406</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>207562</v>
+        <v>207331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5087873462582635</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4567053647102071</v>
+        <v>0.455196541609849</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5610319627198117</v>
+        <v>0.5604094870661136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -5810,19 +5810,19 @@
         <v>237415</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>216261</v>
+        <v>215368</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>255718</v>
+        <v>256632</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6144236521901383</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.559679643013611</v>
+        <v>0.5573666351272746</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6617933973513421</v>
+        <v>0.6641585805049307</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>405</v>
@@ -5831,19 +5831,19 @@
         <v>425648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>397545</v>
+        <v>397212</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>453539</v>
+        <v>455974</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5627533894052025</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5255993155665682</v>
+        <v>0.525158480238758</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5996292131280464</v>
+        <v>0.6028478898243872</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>181731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>162402</v>
+        <v>162633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>200999</v>
+        <v>201558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4912126537417365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4389680372801882</v>
+        <v>0.4395905129338863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5432946352897929</v>
+        <v>0.544803458390151</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -5881,19 +5881,19 @@
         <v>148987</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130684</v>
+        <v>129770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>170141</v>
+        <v>171034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3855763478098618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.338206602648658</v>
+        <v>0.3358414194950693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4403203569863891</v>
+        <v>0.4426333648727258</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>306</v>
@@ -5902,19 +5902,19 @@
         <v>330718</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>302827</v>
+        <v>300392</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>358821</v>
+        <v>359154</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4372466105947975</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4003707868719536</v>
+        <v>0.3971521101756129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4744006844334318</v>
+        <v>0.4748415197612419</v>
       </c>
     </row>
     <row r="15">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5006</v>
+        <v>3997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004204075435306248</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02369841433328606</v>
+        <v>0.01892414318336849</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6027,19 +6027,19 @@
         <v>3209</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9160</v>
+        <v>9351</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01480618100541873</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003985301808275371</v>
+        <v>0.00390571659347541</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04226528638135821</v>
+        <v>0.0431486700508581</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -6048,19 +6048,19 @@
         <v>4097</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10440</v>
+        <v>10367</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00957324033138875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002090148777410538</v>
+        <v>0.002084431680153981</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02439673421224072</v>
+        <v>0.02422646126815586</v>
       </c>
     </row>
     <row r="17">
@@ -6077,7 +6077,7 @@
         <v>210333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206215</v>
+        <v>207224</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -6086,7 +6086,7 @@
         <v>0.9957959245646938</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9763015856667149</v>
+        <v>0.9810758568166325</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6098,19 +6098,19 @@
         <v>213511</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>207560</v>
+        <v>207369</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215856</v>
+        <v>215874</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9851938189945812</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9577347136186415</v>
+        <v>0.9568513299491411</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9960146981917246</v>
+        <v>0.9960942834065246</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>429</v>
@@ -6119,19 +6119,19 @@
         <v>423844</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>417501</v>
+        <v>417574</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427047</v>
+        <v>427049</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9904267596686113</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9756032657877595</v>
+        <v>0.9757735387318441</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979098512225895</v>
+        <v>0.997915568319846</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>7335</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2922</v>
+        <v>2937</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14896</v>
+        <v>15049</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02787641131485337</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01110367868418583</v>
+        <v>0.01116043459223971</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05661201297777559</v>
+        <v>0.05719232592390913</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -6244,19 +6244,19 @@
         <v>36459</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26939</v>
+        <v>26223</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50994</v>
+        <v>49102</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1340403095358387</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09904129715900938</v>
+        <v>0.09640701911504916</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1874790566611065</v>
+        <v>0.1805243867299559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -6265,19 +6265,19 @@
         <v>43794</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32112</v>
+        <v>32542</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57623</v>
+        <v>57118</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08183872217218034</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06000947610306872</v>
+        <v>0.06081334221654115</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1076828857137987</v>
+        <v>0.1067379973980814</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>255788</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248227</v>
+        <v>248074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260201</v>
+        <v>260186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9721235886851466</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9433879870222245</v>
+        <v>0.9428076740760897</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9888963213158142</v>
+        <v>0.9888395654077603</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>226</v>
@@ -6315,19 +6315,19 @@
         <v>235539</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>221004</v>
+        <v>222896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>245059</v>
+        <v>245775</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8659596904641612</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8125209433388935</v>
+        <v>0.819475613270044</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9009587028409907</v>
+        <v>0.9035929808849508</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>478</v>
@@ -6336,19 +6336,19 @@
         <v>491327</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>477498</v>
+        <v>478003</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>503009</v>
+        <v>502579</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9181612778278196</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8923171142862018</v>
+        <v>0.8932620026019187</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9399905238969314</v>
+        <v>0.9391866577834589</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>119865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98388</v>
+        <v>100898</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141605</v>
+        <v>142315</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1844296340570872</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1513845650944654</v>
+        <v>0.1552455798140877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.217880409175186</v>
+        <v>0.2189725498554078</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>149</v>
@@ -6461,19 +6461,19 @@
         <v>157980</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>135161</v>
+        <v>134745</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>181543</v>
+        <v>180558</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2291824943627914</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1960785526340966</v>
+        <v>0.1954755302132025</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2633647384194338</v>
+        <v>0.2619361891135217</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>255</v>
@@ -6482,19 +6482,19 @@
         <v>277845</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>247467</v>
+        <v>249690</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>306893</v>
+        <v>312345</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2074643057923956</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1847814888080807</v>
+        <v>0.1864412575263037</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2291537620714331</v>
+        <v>0.2332247026662122</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>530058</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>508318</v>
+        <v>507608</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>551535</v>
+        <v>549025</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8155703659429128</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.782119590824814</v>
+        <v>0.7810274501445924</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8486154349055346</v>
+        <v>0.8447544201859124</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>495</v>
@@ -6532,19 +6532,19 @@
         <v>531340</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>507777</v>
+        <v>508762</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>554159</v>
+        <v>554575</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7708175056372085</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7366352615805661</v>
+        <v>0.7380638108864781</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8039214473659032</v>
+        <v>0.8045244697867974</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>963</v>
@@ -6553,19 +6553,19 @@
         <v>1061398</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1032350</v>
+        <v>1026898</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1091776</v>
+        <v>1089553</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7925356942076044</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7708462379285664</v>
+        <v>0.7667752973337878</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8152185111919191</v>
+        <v>0.8135587424736963</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>49755</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37809</v>
+        <v>37610</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66219</v>
+        <v>65755</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06390480993943279</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04856110941784741</v>
+        <v>0.04830573552983952</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08505086311230332</v>
+        <v>0.08445455794409569</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -6678,19 +6678,19 @@
         <v>74964</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60363</v>
+        <v>59975</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>95590</v>
+        <v>94757</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09097293864926105</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07325404395912979</v>
+        <v>0.07278233763932666</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1160038261878856</v>
+        <v>0.1149927295196476</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>117</v>
@@ -6699,19 +6699,19 @@
         <v>124719</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104637</v>
+        <v>105854</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>148041</v>
+        <v>148557</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07782265576231076</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0652916886714051</v>
+        <v>0.06605087543757265</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09237465614608935</v>
+        <v>0.09269682566435465</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>728828</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>712364</v>
+        <v>712828</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>740774</v>
+        <v>740973</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9360951900605672</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9149491368876967</v>
+        <v>0.9155454420559044</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9514388905821526</v>
+        <v>0.9516942644701604</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>684</v>
@@ -6749,19 +6749,19 @@
         <v>749064</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>728438</v>
+        <v>729271</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>763665</v>
+        <v>764053</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.909027061350739</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8839961738121141</v>
+        <v>0.8850072704803518</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9267459560408701</v>
+        <v>0.927217662360673</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1386</v>
@@ -6770,19 +6770,19 @@
         <v>1477892</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1454570</v>
+        <v>1454054</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1497974</v>
+        <v>1496757</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9221773442376893</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9076253438539107</v>
+        <v>0.9073031743356454</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9347083113285949</v>
+        <v>0.9339491245624274</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>614833</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>571287</v>
+        <v>570234</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>665469</v>
+        <v>662767</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1816065900647685</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1687439895410556</v>
+        <v>0.1684329343424488</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1965631498631145</v>
+        <v>0.1957649811592314</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>774</v>
@@ -6895,19 +6895,19 @@
         <v>811468</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>761738</v>
+        <v>766613</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>862173</v>
+        <v>864745</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2297837942459876</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2157015252801542</v>
+        <v>0.217082083715074</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2441419355532367</v>
+        <v>0.2448701180884446</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1353</v>
@@ -6916,19 +6916,19 @@
         <v>1426302</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1361935</v>
+        <v>1361163</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1494991</v>
+        <v>1494849</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2062033623919285</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1968977150083683</v>
+        <v>0.1967861642297065</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2161339542775668</v>
+        <v>0.2161133260893609</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2770691</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2720055</v>
+        <v>2722757</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2814237</v>
+        <v>2815290</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8183934099352316</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8034368501368855</v>
+        <v>0.8042350188407685</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8312560104589442</v>
+        <v>0.831567065657551</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2551</v>
@@ -6966,19 +6966,19 @@
         <v>2719975</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2669270</v>
+        <v>2666698</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2769705</v>
+        <v>2764830</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7702162057540124</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7558580644467633</v>
+        <v>0.7551298819115554</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7842984747198458</v>
+        <v>0.782917916284926</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5195</v>
@@ -6987,19 +6987,19 @@
         <v>5490665</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5421976</v>
+        <v>5422118</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5555032</v>
+        <v>5555804</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7937966376080715</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7838660457224331</v>
+        <v>0.7838866739106388</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8031022849916317</v>
+        <v>0.8032138357702934</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>31733</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22702</v>
+        <v>23308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42886</v>
+        <v>42809</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09952539528680791</v>
+        <v>0.09952539528680793</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07119980124837302</v>
+        <v>0.07310225484248255</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.13450567561872</v>
+        <v>0.1342635344908263</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -7356,19 +7356,19 @@
         <v>46747</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37727</v>
+        <v>36134</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58028</v>
+        <v>56911</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1479054955200716</v>
+        <v>0.1479054955200715</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1193660796363158</v>
+        <v>0.1143251095041902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1835971592291795</v>
+        <v>0.1800642675085579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -7377,19 +7377,19 @@
         <v>78480</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64173</v>
+        <v>65200</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94127</v>
+        <v>94008</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1236093501015885</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1010744944172606</v>
+        <v>0.1026923320375088</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1482534641137368</v>
+        <v>0.1480660503523753</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>287112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275959</v>
+        <v>276036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296143</v>
+        <v>295537</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9004746047131921</v>
+        <v>0.9004746047131922</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.86549432438128</v>
+        <v>0.8657364655091737</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9288001987516269</v>
+        <v>0.9268977451575175</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>462</v>
@@ -7427,19 +7427,19 @@
         <v>269314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258033</v>
+        <v>259150</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>278334</v>
+        <v>279927</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8520945044799286</v>
+        <v>0.8520945044799284</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8164028407708203</v>
+        <v>0.819935732491442</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.880633920363684</v>
+        <v>0.8856748904958097</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>758</v>
@@ -7448,19 +7448,19 @@
         <v>556426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>540779</v>
+        <v>540898</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>570733</v>
+        <v>569706</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8763906498984115</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8517465358862631</v>
+        <v>0.8519339496476246</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8989255055827392</v>
+        <v>0.8973076679624912</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>117400</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97727</v>
+        <v>97292</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>142367</v>
+        <v>144203</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2216576578758942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1845142091943381</v>
+        <v>0.1836915100727012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2687960476993554</v>
+        <v>0.2722622025816236</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -7573,19 +7573,19 @@
         <v>176406</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>158511</v>
+        <v>157297</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>196446</v>
+        <v>196720</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3232003640083958</v>
+        <v>0.3232003640083959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2904156597369515</v>
+        <v>0.2881907166637082</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3599165898699623</v>
+        <v>0.3604182844042869</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -7594,19 +7594,19 @@
         <v>293806</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>263246</v>
+        <v>265918</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>326246</v>
+        <v>326870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2731920120776237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2447758532338664</v>
+        <v>0.2472608917577016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3033560580239215</v>
+        <v>0.3039363530861441</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>412247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>387280</v>
+        <v>385444</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>431920</v>
+        <v>432355</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7783423421241059</v>
+        <v>0.7783423421241058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7312039523006454</v>
+        <v>0.7277377974183753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8154857908056619</v>
+        <v>0.8163084899272988</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>491</v>
@@ -7644,19 +7644,19 @@
         <v>369403</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349363</v>
+        <v>349089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>387298</v>
+        <v>388512</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6767996359916042</v>
+        <v>0.6767996359916043</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6400834101300376</v>
+        <v>0.639581715595713</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7095843402630484</v>
+        <v>0.7118092833362917</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>784</v>
@@ -7665,19 +7665,19 @@
         <v>781651</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>749211</v>
+        <v>748587</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>812211</v>
+        <v>809539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7268079879223763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6966439419760787</v>
+        <v>0.6960636469138561</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7552241467661337</v>
+        <v>0.7527391082422984</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>40635</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31076</v>
+        <v>30262</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54161</v>
+        <v>52940</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1285934097710014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0983430729303493</v>
+        <v>0.09576874893596558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1714006218464829</v>
+        <v>0.167533785507804</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -7790,19 +7790,19 @@
         <v>74676</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63363</v>
+        <v>63057</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89840</v>
+        <v>88093</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2095402560147234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1777954545809292</v>
+        <v>0.1769383364325049</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.252089280515376</v>
+        <v>0.2471871980649411</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>151</v>
@@ -7811,19 +7811,19 @@
         <v>115311</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98005</v>
+        <v>98391</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132748</v>
+        <v>131613</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1714979726743119</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.145758870550134</v>
+        <v>0.1463335435920816</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1974315770635471</v>
+        <v>0.1957429883477543</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>275358</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>261832</v>
+        <v>263053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>284917</v>
+        <v>285731</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8714065902289985</v>
+        <v>0.8714065902289987</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8285993781535171</v>
+        <v>0.8324662144921962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9016569270696506</v>
+        <v>0.9042312510640345</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>431</v>
@@ -7861,19 +7861,19 @@
         <v>281705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266541</v>
+        <v>268288</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>293018</v>
+        <v>293324</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7904597439852766</v>
+        <v>0.7904597439852764</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7479107194846238</v>
+        <v>0.752812801935059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8222045454190711</v>
+        <v>0.8230616635674951</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>745</v>
@@ -7882,19 +7882,19 @@
         <v>557064</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>539627</v>
+        <v>540762</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>574370</v>
+        <v>573984</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8285020273256881</v>
+        <v>0.8285020273256882</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8025684229364528</v>
+        <v>0.8042570116522457</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8542411294498662</v>
+        <v>0.8536664564079186</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>99593</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77437</v>
+        <v>76801</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124342</v>
+        <v>126030</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2669018321892112</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2075253822817516</v>
+        <v>0.2058219064165633</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3332258209025102</v>
+        <v>0.3377511194126612</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -8007,19 +8007,19 @@
         <v>117667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100620</v>
+        <v>99019</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>139156</v>
+        <v>136219</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2788565749452345</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2384581516387526</v>
+        <v>0.2346633577864394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.329784112746307</v>
+        <v>0.322822525777931</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>192</v>
@@ -8028,19 +8028,19 @@
         <v>217260</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190371</v>
+        <v>188754</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>250420</v>
+        <v>249322</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2732461888645014</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2394281082937175</v>
+        <v>0.2373947099714399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.314951633000764</v>
+        <v>0.3135699925802833</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>273552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248803</v>
+        <v>247115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>295708</v>
+        <v>296344</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7330981678107888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6667741790974897</v>
+        <v>0.662248880587339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7924746177182485</v>
+        <v>0.7941780935834366</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>471</v>
@@ -8078,19 +8078,19 @@
         <v>304294</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>282805</v>
+        <v>285742</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>321341</v>
+        <v>322942</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7211434250547656</v>
+        <v>0.7211434250547658</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6702158872536929</v>
+        <v>0.677177474222069</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7615418483612476</v>
+        <v>0.7653366422135607</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>699</v>
@@ -8099,19 +8099,19 @@
         <v>577847</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>544687</v>
+        <v>545785</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>604736</v>
+        <v>606353</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7267538111354985</v>
+        <v>0.7267538111354984</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6850483669992361</v>
+        <v>0.6864300074197168</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7605718917062826</v>
+        <v>0.76260529002856</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>12892</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8128</v>
+        <v>7726</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20356</v>
+        <v>20174</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06268447037238836</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03952230788005883</v>
+        <v>0.03756642190132541</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09897842160515027</v>
+        <v>0.09808924051044629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -8224,19 +8224,19 @@
         <v>14821</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9971</v>
+        <v>10489</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20250</v>
+        <v>21520</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06546039016036834</v>
+        <v>0.06546039016036832</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04404088684421543</v>
+        <v>0.04632992050522285</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08944165599847871</v>
+        <v>0.09505177667481497</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -8245,19 +8245,19 @@
         <v>27713</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20207</v>
+        <v>21137</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36649</v>
+        <v>37679</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06413905704520251</v>
+        <v>0.06413905704520252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04676814898173087</v>
+        <v>0.04892116697639028</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08482230363265865</v>
+        <v>0.08720660572317361</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>192773</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185309</v>
+        <v>185491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197537</v>
+        <v>197939</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9373155296276116</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9010215783948488</v>
+        <v>0.9019107594895538</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9604776921199412</v>
+        <v>0.9624335780986749</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>457</v>
@@ -8295,19 +8295,19 @@
         <v>211585</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206156</v>
+        <v>204886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216435</v>
+        <v>215917</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9345396098396316</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9105583440015215</v>
+        <v>0.9049482233251852</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9559591131557845</v>
+        <v>0.9536700794947772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>718</v>
@@ -8316,19 +8316,19 @@
         <v>404357</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>395421</v>
+        <v>394391</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>411863</v>
+        <v>410933</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9358609429547976</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9151776963673411</v>
+        <v>0.9127933942768263</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9532318510182684</v>
+        <v>0.9510788330236096</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>7158</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3078</v>
+        <v>3516</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12691</v>
+        <v>12918</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0264434832128551</v>
+        <v>0.02644348321285511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01136854404333457</v>
+        <v>0.0129872787657416</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04688110525359921</v>
+        <v>0.0477193842465999</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -8441,19 +8441,19 @@
         <v>13209</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7685</v>
+        <v>8063</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20677</v>
+        <v>21272</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05007971040615565</v>
+        <v>0.05007971040615564</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02913861276300993</v>
+        <v>0.0305703290072761</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07839606707205024</v>
+        <v>0.08065200452771043</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -8462,19 +8462,19 @@
         <v>20367</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13797</v>
+        <v>13666</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29276</v>
+        <v>29015</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03810776800808636</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02581554406597758</v>
+        <v>0.02557027118742554</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05477685075784551</v>
+        <v>0.05428801494204073</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>263549</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258016</v>
+        <v>257789</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267629</v>
+        <v>267191</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9735565167871448</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9531188947464007</v>
+        <v>0.9522806157534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9886314559566654</v>
+        <v>0.9870127212342583</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>442</v>
@@ -8512,19 +8512,19 @@
         <v>250541</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>243073</v>
+        <v>242478</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256065</v>
+        <v>255687</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9499202895938446</v>
+        <v>0.9499202895938441</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.92160393292795</v>
+        <v>0.9193479954722894</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9708613872369901</v>
+        <v>0.9694296709927239</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>804</v>
@@ -8533,19 +8533,19 @@
         <v>514090</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>505181</v>
+        <v>505442</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>520660</v>
+        <v>520791</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9618922319919136</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9452231492421546</v>
+        <v>0.9457119850579596</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9741844559340224</v>
+        <v>0.9744297288125745</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>195677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>170628</v>
+        <v>170611</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>224140</v>
+        <v>225585</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2759693113832583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2406423943252645</v>
+        <v>0.2406179145823172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3161123022308273</v>
+        <v>0.3181490019873537</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>345</v>
@@ -8658,19 +8658,19 @@
         <v>274293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>248466</v>
+        <v>249637</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>300139</v>
+        <v>299461</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3586946580996072</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3249209545160566</v>
+        <v>0.3264521768270988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3924935400404017</v>
+        <v>0.3916072025962064</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>515</v>
@@ -8679,19 +8679,19 @@
         <v>469970</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>433473</v>
+        <v>433861</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>502566</v>
+        <v>507527</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3188937249567976</v>
+        <v>0.3188937249567977</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2941295125714818</v>
+        <v>0.2943922954844366</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3410113952396335</v>
+        <v>0.3443777335055387</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>513376</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>484913</v>
+        <v>483468</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>538425</v>
+        <v>538442</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7240306886167417</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6838876977691722</v>
+        <v>0.6818509980126464</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7593576056747348</v>
+        <v>0.7593820854176827</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>606</v>
@@ -8729,19 +8729,19 @@
         <v>490405</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>464559</v>
+        <v>465237</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>516232</v>
+        <v>515061</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6413053419003928</v>
+        <v>0.6413053419003929</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6075064599595984</v>
+        <v>0.6083927974037935</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6750790454839434</v>
+        <v>0.6735478231729009</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1026</v>
@@ -8750,19 +8750,19 @@
         <v>1003780</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>971184</v>
+        <v>966223</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1040277</v>
+        <v>1039889</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6811062750432021</v>
+        <v>0.6811062750432023</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6589886047603666</v>
+        <v>0.6556222664944612</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7058704874285182</v>
+        <v>0.7056077045155634</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>15855</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9122</v>
+        <v>8865</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25137</v>
+        <v>26254</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01986653866637177</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01143023742977871</v>
+        <v>0.01110787964616379</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03149762021048704</v>
+        <v>0.03289647981915104</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -8875,19 +8875,19 @@
         <v>31449</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22880</v>
+        <v>22031</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42043</v>
+        <v>42829</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03789123518877092</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02756640931028076</v>
+        <v>0.02654363303115934</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05065401295280647</v>
+        <v>0.05160121028921801</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -8896,19 +8896,19 @@
         <v>47304</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36207</v>
+        <v>36482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61136</v>
+        <v>60521</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02905559487967925</v>
+        <v>0.02905559487967924</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02223916520954184</v>
+        <v>0.0224082278622683</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03755134716226832</v>
+        <v>0.03717376494249531</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>782217</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>772935</v>
+        <v>771818</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>788950</v>
+        <v>789207</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9801334613336282</v>
+        <v>0.980133461333628</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.968502379789513</v>
+        <v>0.9671035201808489</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9885697625702212</v>
+        <v>0.9888921203538361</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1021</v>
@@ -8946,19 +8946,19 @@
         <v>798545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>787951</v>
+        <v>787165</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>807114</v>
+        <v>807963</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9621087648112291</v>
+        <v>0.9621087648112292</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9493459870471936</v>
+        <v>0.948398789710782</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9724335906897194</v>
+        <v>0.9734563669688407</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1768</v>
@@ -8967,19 +8967,19 @@
         <v>1580762</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1566930</v>
+        <v>1567545</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1591859</v>
+        <v>1591584</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9709444051203208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.962448652837732</v>
+        <v>0.9628262350575046</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9777608347904583</v>
+        <v>0.9775917721377317</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>520944</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>472693</v>
+        <v>469208</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>572748</v>
+        <v>568966</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1479479255598124</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1342447024746851</v>
+        <v>0.1332550997976604</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1626605165857238</v>
+        <v>0.1615861505323511</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>969</v>
@@ -9092,19 +9092,19 @@
         <v>749267</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>704891</v>
+        <v>702785</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>794118</v>
+        <v>792189</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2011423598591291</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1892294598408788</v>
+        <v>0.1886639660748994</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.213182609297781</v>
+        <v>0.2126647755040108</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1414</v>
@@ -9113,19 +9113,19 @@
         <v>1270211</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1209314</v>
+        <v>1210512</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1337781</v>
+        <v>1341115</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1752936792835446</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1668896754331169</v>
+        <v>0.1670549882563795</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1846186326104662</v>
+        <v>0.1850787027935939</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3000184</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2948380</v>
+        <v>2952162</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3048435</v>
+        <v>3051920</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8520520744401876</v>
+        <v>0.8520520744401877</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8373394834142756</v>
+        <v>0.8384138494676489</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8657552975253147</v>
+        <v>0.8667449002023394</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4381</v>
@@ -9163,19 +9163,19 @@
         <v>2975793</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2930942</v>
+        <v>2932871</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3020169</v>
+        <v>3022275</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.798857640140871</v>
+        <v>0.7988576401408709</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7868173907022191</v>
+        <v>0.7873352244959891</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8107705401591214</v>
+        <v>0.8113360339251007</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7302</v>
@@ -9184,19 +9184,19 @@
         <v>5975977</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5908407</v>
+        <v>5905073</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6036874</v>
+        <v>6035676</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8247063207164554</v>
+        <v>0.8247063207164553</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8153813673895337</v>
+        <v>0.8149212972064062</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8331103245668831</v>
+        <v>0.8329450117436206</v>
       </c>
     </row>
     <row r="30">
